--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,24 @@
   </si>
   <si>
     <t>oscar.khoury12324@gmail.com</t>
+  </si>
+  <si>
+    <t>william.jpg</t>
+  </si>
+  <si>
+    <t>jimmy.jpg</t>
+  </si>
+  <si>
+    <t>imad.jpg</t>
+  </si>
+  <si>
+    <t>christ.jpg</t>
+  </si>
+  <si>
+    <t>oscar.jpg</t>
+  </si>
+  <si>
+    <t>me.jpg</t>
   </si>
 </sst>
 </file>
@@ -400,13 +418,15 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -427,6 +447,9 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -435,6 +458,9 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -443,6 +469,9 @@
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -451,6 +480,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -459,6 +491,9 @@
       <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -466,6 +501,9 @@
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -476,6 +514,7 @@
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="C2" display="https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.123rf.com%2Fphoto_91650612_portrait-of-male-student-standing-outside-college-building.html&amp;psig=AOvVaw1fQhOSICE9DnLaPApfFbBp&amp;ust=1652723380604000&amp;source=images&amp;cd=vfe&amp;ved=0CAwQjRxqFwoTCKiWvc-I4vcCFQAAA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -68,9 +68,6 @@
     <t>christ.sargi12345@outlook.com</t>
   </si>
   <si>
-    <t>oscar.khoury12324@gmail.com</t>
-  </si>
-  <si>
     <t>william.jpg</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>me.jpg</t>
+  </si>
+  <si>
+    <t>khouryoscar7@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -470,7 +470,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,7 +492,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -500,10 +500,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -38,9 +38,6 @@
     <t>Joseph Farchakh</t>
   </si>
   <si>
-    <t>joseph.farchkah02@gmail.com</t>
-  </si>
-  <si>
     <t>William Nasr</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>khouryoscar7@gmail.com</t>
+  </si>
+  <si>
+    <t>joseph.farchakh02@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,65 +445,65 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>joseph.farchakh02@gmail.com</t>
+  </si>
+  <si>
+    <t>Jad Douaihy</t>
+  </si>
+  <si>
+    <t>jaddouaihy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>jad.jpg</t>
   </si>
 </sst>
 </file>
@@ -415,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,6 +515,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -515,6 +535,7 @@
     <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="C2" display="https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.123rf.com%2Fphoto_91650612_portrait-of-male-student-standing-outside-college-building.html&amp;psig=AOvVaw1fQhOSICE9DnLaPApfFbBp&amp;ust=1652723380604000&amp;source=images&amp;cd=vfe&amp;ved=0CAwQjRxqFwoTCKiWvc-I4vcCFQAAA"/>
+    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
